--- a/pred_result/f_measure.xlsx
+++ b/pred_result/f_measure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H115\git\auto-encoder\pred_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8697296-A8E4-4009-A836-5104495A5712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BA8E13-8C51-4D8A-B8FB-1EB482E5CF08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10104" xr2:uid="{8DCE9356-5F6E-4162-A788-5D28E8956283}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="C2:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -430,28 +430,31 @@
       </c>
       <c r="I2">
         <f>($C$3+$F$3)/($C$3+$D$3+$E3+$F$3)</f>
-        <v>0.97783933518005539</v>
+        <v>0.89393939393939392</v>
       </c>
     </row>
     <row r="3" spans="3:9">
       <c r="C3">
-        <v>251</v>
+        <f>190+19</f>
+        <v>209</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <f>37-19</f>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>102</v>
+        <f>67+19</f>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3">
         <f>$C$3/($C$3+$D$3)</f>
-        <v>0.97286821705426352</v>
+        <v>0.9247787610619469</v>
       </c>
     </row>
     <row r="4" spans="3:9">
@@ -460,7 +463,7 @@
       </c>
       <c r="I4">
         <f>$C$3/($C$3+$E$3)</f>
-        <v>0.99603174603174605</v>
+        <v>0.92070484581497802</v>
       </c>
     </row>
     <row r="5" spans="3:9">
@@ -469,7 +472,7 @@
       </c>
       <c r="I5">
         <f>$F$3/($D$3+$F$3)</f>
-        <v>0.93577981651376152</v>
+        <v>0.83495145631067957</v>
       </c>
     </row>
     <row r="6" spans="3:9">
@@ -478,7 +481,7 @@
       </c>
       <c r="I6">
         <f>(2*$I$4*$I$3)/($I$4+$I$3)</f>
-        <v>0.98431372549019613</v>
+        <v>0.92273730684326705</v>
       </c>
     </row>
   </sheetData>

--- a/pred_result/f_measure.xlsx
+++ b/pred_result/f_measure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H115\git\auto-encoder\pred_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BA8E13-8C51-4D8A-B8FB-1EB482E5CF08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8982AF3E-A194-4085-B1EE-A89D6F9FC227}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10104" xr2:uid="{8DCE9356-5F6E-4162-A788-5D28E8956283}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="C2:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -430,31 +430,28 @@
       </c>
       <c r="I2">
         <f>($C$3+$F$3)/($C$3+$D$3+$E3+$F$3)</f>
-        <v>0.89393939393939392</v>
+        <v>0.97119999999999995</v>
       </c>
     </row>
     <row r="3" spans="3:9">
       <c r="C3">
-        <f>190+19</f>
+        <v>398</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>209</v>
-      </c>
-      <c r="D3">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <f>37-19</f>
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <f>67+19</f>
-        <v>86</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3">
         <f>$C$3/($C$3+$D$3)</f>
-        <v>0.9247787610619469</v>
+        <v>0.95673076923076927</v>
       </c>
     </row>
     <row r="4" spans="3:9">
@@ -463,7 +460,7 @@
       </c>
       <c r="I4">
         <f>$C$3/($C$3+$E$3)</f>
-        <v>0.92070484581497802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:9">
@@ -472,7 +469,7 @@
       </c>
       <c r="I5">
         <f>$F$3/($D$3+$F$3)</f>
-        <v>0.83495145631067957</v>
+        <v>0.92070484581497802</v>
       </c>
     </row>
     <row r="6" spans="3:9">
@@ -481,7 +478,7 @@
       </c>
       <c r="I6">
         <f>(2*$I$4*$I$3)/($I$4+$I$3)</f>
-        <v>0.92273730684326705</v>
+        <v>0.97788697788697798</v>
       </c>
     </row>
   </sheetData>

--- a/pred_result/f_measure.xlsx
+++ b/pred_result/f_measure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H115\git\auto-encoder\pred_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8982AF3E-A194-4085-B1EE-A89D6F9FC227}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BB6C48-FA88-48D4-9C3D-6FBE1D152981}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10104" xr2:uid="{8DCE9356-5F6E-4162-A788-5D28E8956283}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>TP</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>test12_30_2</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9822807-F553-4972-BF55-8100B0084F60}">
-  <dimension ref="C2:I6"/>
+  <dimension ref="C2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -481,6 +484,75 @@
         <v>0.97788697788697798</v>
       </c>
     </row>
+    <row r="17" spans="4:10">
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>0.97119999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19">
+        <v>398</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>209</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>0.95673076923076927</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="I20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>0.92070484581497802</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>0.97788697788697798</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
